--- a/biology/Botanique/Maria_Callas_(rose)/Maria_Callas_(rose).xlsx
+++ b/biology/Botanique/Maria_Callas_(rose)/Maria_Callas_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Maria Callas' est un cultivar de rosier obtenu en 1965 par la rosiériste française Marie-Louise Meilland[1], issu d'un croisement 'Chrysler Imperial' (Lammerts, 1952) × 'Karl Herbst' (Kordes, 1950). Il est dédié à la grande cantatrice grecque Maria Callas, (1923-1977).
+'Maria Callas' est un cultivar de rosier obtenu en 1965 par la rosiériste française Marie-Louise Meilland, issu d'un croisement 'Chrysler Imperial' (Lammerts, 1952) × 'Karl Herbst' (Kordes, 1950). Il est dédié à la grande cantatrice grecque Maria Callas, (1923-1977).
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son buisson, qui s'élève à 120 cm (parfois à 200 cm[2]), exhibe un feuillage dense et brillant exempt de maladies.
-La fleur est opulente (50-60 pétales) et très grande formant presque un chou[3]. Sa couleur est d'un rose indien intense et elle est fortement parfumée.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son buisson, qui s'élève à 120 cm (parfois à 200 cm), exhibe un feuillage dense et brillant exempt de maladies.
+La fleur est opulente (50-60 pétales) et très grande formant presque un chou. Sa couleur est d'un rose indien intense et elle est fortement parfumée.
 Il a besoin d'une exposition ensoleillée. Il est recommandé d'ôter ses fleurs fanées pour favoriser la remontée qui a lieu tout l'été. Son pied a besoin d'être protégé en hiver, sa zone de rusticité étant de 7b.
-Il existe une variété grimpante[4], pouvant atteindre 4 mètres, qui fleurit abondamment au printemps et moins par la suite[3].
+Il existe une variété grimpante, pouvant atteindre 4 mètres, qui fleurit abondamment au printemps et moins par la suite.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Certificat de Mérite de Baden-Baden, 1965
 Médaille d'or de Courtrai, 1965
